--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tg-Asgr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tg-Asgr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.037283</v>
+        <v>0.01924366666666667</v>
       </c>
       <c r="H2">
-        <v>0.111849</v>
+        <v>0.057731</v>
       </c>
       <c r="I2">
-        <v>0.04755038908979835</v>
+        <v>0.03023428942663991</v>
       </c>
       <c r="J2">
-        <v>0.05103401263701968</v>
+        <v>0.03354316086958543</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3148576666666667</v>
+        <v>2.103486</v>
       </c>
       <c r="N2">
-        <v>0.9445730000000001</v>
+        <v>6.310458</v>
       </c>
       <c r="O2">
-        <v>0.1081871716767372</v>
+        <v>0.7577632979307839</v>
       </c>
       <c r="P2">
-        <v>0.1101334406327526</v>
+        <v>0.7763073432360489</v>
       </c>
       <c r="Q2">
-        <v>0.01173883838633334</v>
+        <v>0.04047878342199999</v>
       </c>
       <c r="R2">
-        <v>0.105649545477</v>
+        <v>0.364309050798</v>
       </c>
       <c r="S2">
-        <v>0.005144342107753667</v>
+        <v>0.02291043486652449</v>
       </c>
       <c r="T2">
-        <v>0.00562055140101035</v>
+        <v>0.02603980209840726</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,46 +602,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.037283</v>
+        <v>0.01924366666666667</v>
       </c>
       <c r="H3">
-        <v>0.111849</v>
+        <v>0.057731</v>
       </c>
       <c r="I3">
-        <v>0.04755038908979835</v>
+        <v>0.03023428942663991</v>
       </c>
       <c r="J3">
-        <v>0.05103401263701968</v>
+        <v>0.03354316086958543</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.103486</v>
+        <v>0.3504066666666667</v>
       </c>
       <c r="N3">
-        <v>6.310458</v>
+        <v>1.05122</v>
       </c>
       <c r="O3">
-        <v>0.7227716682615739</v>
+        <v>0.126231080858283</v>
       </c>
       <c r="P3">
-        <v>0.7357742085667051</v>
+        <v>0.129320218176969</v>
       </c>
       <c r="Q3">
-        <v>0.078424268538</v>
+        <v>0.006743109091111111</v>
       </c>
       <c r="R3">
-        <v>0.705818416842</v>
+        <v>0.06068798182</v>
       </c>
       <c r="S3">
-        <v>0.0343680740489205</v>
+        <v>0.003816507033306913</v>
       </c>
       <c r="T3">
-        <v>0.03754951025798638</v>
+        <v>0.004337808881999956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.037283</v>
+        <v>0.01924366666666667</v>
       </c>
       <c r="H4">
-        <v>0.111849</v>
+        <v>0.057731</v>
       </c>
       <c r="I4">
-        <v>0.04755038908979835</v>
+        <v>0.03023428942663991</v>
       </c>
       <c r="J4">
-        <v>0.05103401263701968</v>
+        <v>0.03354316086958543</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.03938133333333333</v>
+        <v>0.198929</v>
       </c>
       <c r="N4">
-        <v>0.118144</v>
+        <v>0.397858</v>
       </c>
       <c r="O4">
-        <v>0.01353168596876731</v>
+        <v>0.07166251408094607</v>
       </c>
       <c r="P4">
-        <v>0.01377511871513998</v>
+        <v>0.04894416331828973</v>
       </c>
       <c r="Q4">
-        <v>0.001468254250666667</v>
+        <v>0.003828123366333333</v>
       </c>
       <c r="R4">
-        <v>0.013214288256</v>
+        <v>0.022968740198</v>
       </c>
       <c r="S4">
-        <v>0.0006434369328558502</v>
+        <v>0.002166665191763981</v>
       </c>
       <c r="T4">
-        <v>0.0007029995825849</v>
+        <v>0.001641741943812654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,51 +726,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.037283</v>
+        <v>0.01924366666666667</v>
       </c>
       <c r="H5">
-        <v>0.111849</v>
+        <v>0.057731</v>
       </c>
       <c r="I5">
-        <v>0.04755038908979835</v>
+        <v>0.03023428942663991</v>
       </c>
       <c r="J5">
-        <v>0.05103401263701968</v>
+        <v>0.03354316086958543</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.154292</v>
+        <v>0.1230926666666667</v>
       </c>
       <c r="N5">
-        <v>0.308584</v>
+        <v>0.369278</v>
       </c>
       <c r="O5">
-        <v>0.05301574920841631</v>
+        <v>0.04434310712998708</v>
       </c>
       <c r="P5">
-        <v>0.03597966239159632</v>
+        <v>0.04542827526869233</v>
       </c>
       <c r="Q5">
-        <v>0.005752468636000001</v>
+        <v>0.002368754246444445</v>
       </c>
       <c r="R5">
-        <v>0.034514811816</v>
+        <v>0.021318788218</v>
       </c>
       <c r="S5">
-        <v>0.002520919502747365</v>
+        <v>0.001340682335044529</v>
       </c>
       <c r="T5">
-        <v>0.001836186545168428</v>
+        <v>0.001523807945365556</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,25 +779,25 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.037283</v>
+        <v>0.2137036666666667</v>
       </c>
       <c r="H6">
-        <v>0.111849</v>
+        <v>0.641111</v>
       </c>
       <c r="I6">
-        <v>0.04755038908979835</v>
+        <v>0.3357561020699891</v>
       </c>
       <c r="J6">
-        <v>0.05103401263701968</v>
+        <v>0.372501592008813</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.298288</v>
+        <v>2.103486</v>
       </c>
       <c r="N6">
-        <v>0.894864</v>
+        <v>6.310458</v>
       </c>
       <c r="O6">
-        <v>0.1024937248845052</v>
+        <v>0.7577632979307839</v>
       </c>
       <c r="P6">
-        <v>0.1043375696938061</v>
+        <v>0.7763073432360489</v>
       </c>
       <c r="Q6">
-        <v>0.011121071504</v>
+        <v>0.4495226709819999</v>
       </c>
       <c r="R6">
-        <v>0.100089643536</v>
+        <v>4.045704038838</v>
       </c>
       <c r="S6">
-        <v>0.004873616497520971</v>
+        <v>0.2544236512049399</v>
       </c>
       <c r="T6">
-        <v>0.00532476485026962</v>
+        <v>0.2891757212435602</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>0.641111</v>
       </c>
       <c r="I7">
-        <v>0.2725556553903004</v>
+        <v>0.3357561020699891</v>
       </c>
       <c r="J7">
-        <v>0.2925235529663414</v>
+        <v>0.372501592008813</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3148576666666667</v>
+        <v>0.3504066666666667</v>
       </c>
       <c r="N7">
-        <v>0.9445730000000001</v>
+        <v>1.05122</v>
       </c>
       <c r="O7">
-        <v>0.1081871716767372</v>
+        <v>0.126231080858283</v>
       </c>
       <c r="P7">
-        <v>0.1101334406327526</v>
+        <v>0.129320218176969</v>
       </c>
       <c r="Q7">
-        <v>0.06728623784477777</v>
+        <v>0.07488318949111111</v>
       </c>
       <c r="R7">
-        <v>0.605576140603</v>
+        <v>0.67394870542</v>
       </c>
       <c r="S7">
-        <v>0.02948702548117605</v>
+        <v>0.04238285566905872</v>
       </c>
       <c r="T7">
-        <v>0.03221662535430041</v>
+        <v>0.04817198714984798</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>0.641111</v>
       </c>
       <c r="I8">
-        <v>0.2725556553903004</v>
+        <v>0.3357561020699891</v>
       </c>
       <c r="J8">
-        <v>0.2925235529663414</v>
+        <v>0.372501592008813</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>2.103486</v>
+        <v>0.198929</v>
       </c>
       <c r="N8">
-        <v>6.310458</v>
+        <v>0.397858</v>
       </c>
       <c r="O8">
-        <v>0.7227716682615739</v>
+        <v>0.07166251408094607</v>
       </c>
       <c r="P8">
-        <v>0.7357742085667051</v>
+        <v>0.04894416331828973</v>
       </c>
       <c r="Q8">
-        <v>0.4495226709819999</v>
+        <v>0.04251185670633333</v>
       </c>
       <c r="R8">
-        <v>4.045704038838</v>
+        <v>0.255071140238</v>
       </c>
       <c r="S8">
-        <v>0.196995505740574</v>
+        <v>0.02406112639235416</v>
       </c>
       <c r="T8">
-        <v>0.2152312856709305</v>
+        <v>0.01823177875560227</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>0.641111</v>
       </c>
       <c r="I9">
-        <v>0.2725556553903004</v>
+        <v>0.3357561020699891</v>
       </c>
       <c r="J9">
-        <v>0.2925235529663414</v>
+        <v>0.372501592008813</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,95 +992,95 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03938133333333333</v>
+        <v>0.1230926666666667</v>
       </c>
       <c r="N9">
-        <v>0.118144</v>
+        <v>0.369278</v>
       </c>
       <c r="O9">
-        <v>0.01353168596876731</v>
+        <v>0.04434310712998708</v>
       </c>
       <c r="P9">
-        <v>0.01377511871513998</v>
+        <v>0.04542827526869233</v>
       </c>
       <c r="Q9">
-        <v>0.008415935331555555</v>
+        <v>0.02630535420644444</v>
       </c>
       <c r="R9">
-        <v>0.075743417984</v>
+        <v>0.236748187858</v>
       </c>
       <c r="S9">
-        <v>0.003688137537753104</v>
+        <v>0.01488846880363641</v>
       </c>
       <c r="T9">
-        <v>0.004029546669085891</v>
+        <v>0.01692210485980248</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.065206</v>
+      </c>
+      <c r="H10">
+        <v>0.195618</v>
+      </c>
+      <c r="I10">
+        <v>0.1024470601420458</v>
+      </c>
+      <c r="J10">
+        <v>0.1136589707953537</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.2137036666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.641111</v>
-      </c>
-      <c r="I10">
-        <v>0.2725556553903004</v>
-      </c>
-      <c r="J10">
-        <v>0.2925235529663414</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.154292</v>
+        <v>2.103486</v>
       </c>
       <c r="N10">
-        <v>0.308584</v>
+        <v>6.310458</v>
       </c>
       <c r="O10">
-        <v>0.05301574920841631</v>
+        <v>0.7577632979307839</v>
       </c>
       <c r="P10">
-        <v>0.03597966239159632</v>
+        <v>0.7763073432360489</v>
       </c>
       <c r="Q10">
-        <v>0.03297276613733333</v>
+        <v>0.137159908116</v>
       </c>
       <c r="R10">
-        <v>0.197836596824</v>
+        <v>1.234439173044</v>
       </c>
       <c r="S10">
-        <v>0.01444974227150771</v>
+        <v>0.07763062215654999</v>
       </c>
       <c r="T10">
-        <v>0.01052489867731921</v>
+        <v>0.08823429365308467</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.2137036666666667</v>
+        <v>0.065206</v>
       </c>
       <c r="H11">
-        <v>0.641111</v>
+        <v>0.195618</v>
       </c>
       <c r="I11">
-        <v>0.2725556553903004</v>
+        <v>0.1024470601420458</v>
       </c>
       <c r="J11">
-        <v>0.2925235529663414</v>
+        <v>0.1136589707953537</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.298288</v>
+        <v>0.3504066666666667</v>
       </c>
       <c r="N11">
-        <v>0.894864</v>
+        <v>1.05122</v>
       </c>
       <c r="O11">
-        <v>0.1024937248845052</v>
+        <v>0.126231080858283</v>
       </c>
       <c r="P11">
-        <v>0.1043375696938061</v>
+        <v>0.129320218176969</v>
       </c>
       <c r="Q11">
-        <v>0.06374523932266667</v>
+        <v>0.02284861710666667</v>
       </c>
       <c r="R11">
-        <v>0.573707153904</v>
+        <v>0.20563755396</v>
       </c>
       <c r="S11">
-        <v>0.02793524435928946</v>
+        <v>0.01293200313248397</v>
       </c>
       <c r="T11">
-        <v>0.03052119659470542</v>
+        <v>0.01469840290102488</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1871966666666667</v>
+        <v>0.065206</v>
       </c>
       <c r="H12">
-        <v>0.56159</v>
+        <v>0.195618</v>
       </c>
       <c r="I12">
-        <v>0.2387488757962955</v>
+        <v>0.1024470601420458</v>
       </c>
       <c r="J12">
-        <v>0.2562400303697296</v>
+        <v>0.1136589707953537</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.3148576666666667</v>
+        <v>0.198929</v>
       </c>
       <c r="N12">
-        <v>0.9445730000000001</v>
+        <v>0.397858</v>
       </c>
       <c r="O12">
-        <v>0.1081871716767372</v>
+        <v>0.07166251408094607</v>
       </c>
       <c r="P12">
-        <v>0.1101334406327526</v>
+        <v>0.04894416331828973</v>
       </c>
       <c r="Q12">
-        <v>0.05894030567444446</v>
+        <v>0.012971364374</v>
       </c>
       <c r="R12">
-        <v>0.5304627510700001</v>
+        <v>0.07782818624400001</v>
       </c>
       <c r="S12">
-        <v>0.02582956561340183</v>
+        <v>0.007341613889980886</v>
       </c>
       <c r="T12">
-        <v>0.02822059617245933</v>
+        <v>0.005562943229196512</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1871966666666667</v>
+        <v>0.065206</v>
       </c>
       <c r="H13">
-        <v>0.56159</v>
+        <v>0.195618</v>
       </c>
       <c r="I13">
-        <v>0.2387488757962955</v>
+        <v>0.1024470601420458</v>
       </c>
       <c r="J13">
-        <v>0.2562400303697296</v>
+        <v>0.1136589707953537</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>2.103486</v>
+        <v>0.1230926666666667</v>
       </c>
       <c r="N13">
-        <v>6.310458</v>
+        <v>0.369278</v>
       </c>
       <c r="O13">
-        <v>0.7227716682615739</v>
+        <v>0.04434310712998708</v>
       </c>
       <c r="P13">
-        <v>0.7357742085667051</v>
+        <v>0.04542827526869233</v>
       </c>
       <c r="Q13">
-        <v>0.39376556758</v>
+        <v>0.008026380422666667</v>
       </c>
       <c r="R13">
-        <v>3.54389010822</v>
+        <v>0.072237423804</v>
       </c>
       <c r="S13">
-        <v>0.1725609232548638</v>
+        <v>0.004542820963030967</v>
       </c>
       <c r="T13">
-        <v>0.1885348055483962</v>
+        <v>0.005163331012047589</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.1883585</v>
+      </c>
+      <c r="H14">
+        <v>0.376717</v>
+      </c>
+      <c r="I14">
+        <v>0.2959355669380967</v>
+      </c>
+      <c r="J14">
+        <v>0.2188820379572086</v>
+      </c>
+      <c r="K14">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.1871966666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.56159</v>
-      </c>
-      <c r="I14">
-        <v>0.2387488757962955</v>
-      </c>
-      <c r="J14">
-        <v>0.2562400303697296</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.03938133333333333</v>
+        <v>2.103486</v>
       </c>
       <c r="N14">
-        <v>0.118144</v>
+        <v>6.310458</v>
       </c>
       <c r="O14">
-        <v>0.01353168596876731</v>
+        <v>0.7577632979307839</v>
       </c>
       <c r="P14">
-        <v>0.01377511871513998</v>
+        <v>0.7763073432360489</v>
       </c>
       <c r="Q14">
-        <v>0.007372054328888889</v>
+        <v>0.3962094677309999</v>
       </c>
       <c r="R14">
-        <v>0.06634848896000001</v>
+        <v>2.377256806386</v>
       </c>
       <c r="S14">
-        <v>0.0032306748126717</v>
+        <v>0.2242491111780284</v>
       </c>
       <c r="T14">
-        <v>0.003529736837914099</v>
+        <v>0.1699197333686527</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1871966666666667</v>
+        <v>0.1883585</v>
       </c>
       <c r="H15">
-        <v>0.56159</v>
+        <v>0.376717</v>
       </c>
       <c r="I15">
-        <v>0.2387488757962955</v>
+        <v>0.2959355669380967</v>
       </c>
       <c r="J15">
-        <v>0.2562400303697296</v>
+        <v>0.2188820379572086</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.154292</v>
+        <v>0.3504066666666667</v>
       </c>
       <c r="N15">
-        <v>0.308584</v>
+        <v>1.05122</v>
       </c>
       <c r="O15">
-        <v>0.05301574920841631</v>
+        <v>0.126231080858283</v>
       </c>
       <c r="P15">
-        <v>0.03597966239159632</v>
+        <v>0.129320218176969</v>
       </c>
       <c r="Q15">
-        <v>0.02888294809333334</v>
+        <v>0.06600207412333334</v>
       </c>
       <c r="R15">
-        <v>0.17329768856</v>
+        <v>0.39601244474</v>
       </c>
       <c r="S15">
-        <v>0.01265745052300774</v>
+        <v>0.0373562664790047</v>
       </c>
       <c r="T15">
-        <v>0.009219429783915259</v>
+        <v>0.02830587290364583</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1871966666666667</v>
+        <v>0.1883585</v>
       </c>
       <c r="H16">
-        <v>0.56159</v>
+        <v>0.376717</v>
       </c>
       <c r="I16">
-        <v>0.2387488757962955</v>
+        <v>0.2959355669380967</v>
       </c>
       <c r="J16">
-        <v>0.2562400303697296</v>
+        <v>0.2188820379572086</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M16">
-        <v>0.298288</v>
+        <v>0.198929</v>
       </c>
       <c r="N16">
-        <v>0.894864</v>
+        <v>0.397858</v>
       </c>
       <c r="O16">
-        <v>0.1024937248845052</v>
+        <v>0.07166251408094607</v>
       </c>
       <c r="P16">
-        <v>0.1043375696938061</v>
+        <v>0.04894416331828973</v>
       </c>
       <c r="Q16">
-        <v>0.05583851930666667</v>
+        <v>0.0374699680465</v>
       </c>
       <c r="R16">
-        <v>0.5025466737600001</v>
+        <v>0.149879872186</v>
       </c>
       <c r="S16">
-        <v>0.02447026159235042</v>
+        <v>0.02120748673275411</v>
       </c>
       <c r="T16">
-        <v>0.02673546202704464</v>
+        <v>0.01071299821321771</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1605645</v>
+        <v>0.1883585</v>
       </c>
       <c r="H17">
-        <v>0.321129</v>
+        <v>0.376717</v>
       </c>
       <c r="I17">
-        <v>0.2047824598076583</v>
+        <v>0.2959355669380967</v>
       </c>
       <c r="J17">
-        <v>0.1465234507605208</v>
+        <v>0.2188820379572086</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.3148576666666667</v>
+        <v>0.1230926666666667</v>
       </c>
       <c r="N17">
-        <v>0.9445730000000001</v>
+        <v>0.369278</v>
       </c>
       <c r="O17">
-        <v>0.1081871716767372</v>
+        <v>0.04434310712998708</v>
       </c>
       <c r="P17">
-        <v>0.1101334406327526</v>
+        <v>0.04542827526869233</v>
       </c>
       <c r="Q17">
-        <v>0.0505549638195</v>
+        <v>0.02318555005433333</v>
       </c>
       <c r="R17">
-        <v>0.303329782917</v>
+        <v>0.139113300326</v>
       </c>
       <c r="S17">
-        <v>0.02215483513559567</v>
+        <v>0.01312270254830948</v>
       </c>
       <c r="T17">
-        <v>0.01613713176563986</v>
+        <v>0.009943433471692437</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1605645</v>
+        <v>0.149973</v>
       </c>
       <c r="H18">
-        <v>0.321129</v>
+        <v>0.449919</v>
       </c>
       <c r="I18">
-        <v>0.2047824598076583</v>
+        <v>0.2356269814232285</v>
       </c>
       <c r="J18">
-        <v>0.1465234507605208</v>
+        <v>0.2614142383690393</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,27 +1556,27 @@
         <v>6.310458</v>
       </c>
       <c r="O18">
-        <v>0.7227716682615739</v>
+        <v>0.7577632979307839</v>
       </c>
       <c r="P18">
-        <v>0.7357742085667051</v>
+        <v>0.7763073432360489</v>
       </c>
       <c r="Q18">
-        <v>0.337745177847</v>
+        <v>0.3154661058779999</v>
       </c>
       <c r="R18">
-        <v>2.026471067082</v>
+        <v>2.839194952902</v>
       </c>
       <c r="S18">
-        <v>0.1480109601058899</v>
+        <v>0.1785494785247412</v>
       </c>
       <c r="T18">
-        <v>0.1078081760197848</v>
+        <v>0.2029377928723441</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1605645</v>
+        <v>0.149973</v>
       </c>
       <c r="H19">
-        <v>0.321129</v>
+        <v>0.449919</v>
       </c>
       <c r="I19">
-        <v>0.2047824598076583</v>
+        <v>0.2356269814232285</v>
       </c>
       <c r="J19">
-        <v>0.1465234507605208</v>
+        <v>0.2614142383690393</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,33 +1612,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.03938133333333333</v>
+        <v>0.3504066666666667</v>
       </c>
       <c r="N19">
-        <v>0.118144</v>
+        <v>1.05122</v>
       </c>
       <c r="O19">
-        <v>0.01353168596876731</v>
+        <v>0.126231080858283</v>
       </c>
       <c r="P19">
-        <v>0.01377511871513998</v>
+        <v>0.129320218176969</v>
       </c>
       <c r="Q19">
-        <v>0.006323244095999999</v>
+        <v>0.05255153902</v>
       </c>
       <c r="R19">
-        <v>0.037939464576</v>
+        <v>0.47296385118</v>
       </c>
       <c r="S19">
-        <v>0.002771051938028945</v>
+        <v>0.0297434485444287</v>
       </c>
       <c r="T19">
-        <v>0.002018377928778142</v>
+        <v>0.03380614634045034</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1605645</v>
+        <v>0.149973</v>
       </c>
       <c r="H20">
-        <v>0.321129</v>
+        <v>0.449919</v>
       </c>
       <c r="I20">
-        <v>0.2047824598076583</v>
+        <v>0.2356269814232285</v>
       </c>
       <c r="J20">
-        <v>0.1465234507605208</v>
+        <v>0.2614142383690393</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,33 +1674,33 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.154292</v>
+        <v>0.198929</v>
       </c>
       <c r="N20">
-        <v>0.308584</v>
+        <v>0.397858</v>
       </c>
       <c r="O20">
-        <v>0.05301574920841631</v>
+        <v>0.07166251408094607</v>
       </c>
       <c r="P20">
-        <v>0.03597966239159632</v>
+        <v>0.04894416331828973</v>
       </c>
       <c r="Q20">
-        <v>0.024773817834</v>
+        <v>0.029833978917</v>
       </c>
       <c r="R20">
-        <v>0.099095271336</v>
+        <v>0.179003873502</v>
       </c>
       <c r="S20">
-        <v>0.01085669553144541</v>
+        <v>0.01688562187409293</v>
       </c>
       <c r="T20">
-        <v>0.005271864290815226</v>
+        <v>0.01279470117646058</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,362 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1605645</v>
+        <v>0.149973</v>
       </c>
       <c r="H21">
-        <v>0.321129</v>
+        <v>0.449919</v>
       </c>
       <c r="I21">
-        <v>0.2047824598076583</v>
+        <v>0.2356269814232285</v>
       </c>
       <c r="J21">
-        <v>0.1465234507605208</v>
+        <v>0.2614142383690393</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.298288</v>
+        <v>0.1230926666666667</v>
       </c>
       <c r="N21">
-        <v>0.894864</v>
+        <v>0.369278</v>
       </c>
       <c r="O21">
-        <v>0.1024937248845052</v>
+        <v>0.04434310712998708</v>
       </c>
       <c r="P21">
-        <v>0.1043375696938061</v>
+        <v>0.04542827526869233</v>
       </c>
       <c r="Q21">
-        <v>0.047894463576</v>
+        <v>0.018460576498</v>
       </c>
       <c r="R21">
-        <v>0.287366781456</v>
+        <v>0.166145188482</v>
       </c>
       <c r="S21">
-        <v>0.02098891709669838</v>
+        <v>0.0104484324799657</v>
       </c>
       <c r="T21">
-        <v>0.0152879007555028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.1853256666666666</v>
-      </c>
-      <c r="H22">
-        <v>0.5559769999999999</v>
-      </c>
-      <c r="I22">
-        <v>0.2363626199159475</v>
-      </c>
-      <c r="J22">
-        <v>0.2536789532663885</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.3148576666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.9445730000000001</v>
-      </c>
-      <c r="O22">
-        <v>0.1081871716767372</v>
-      </c>
-      <c r="P22">
-        <v>0.1101334406327526</v>
-      </c>
-      <c r="Q22">
-        <v>0.05835120698011111</v>
-      </c>
-      <c r="R22">
-        <v>0.5251608628210001</v>
-      </c>
-      <c r="S22">
-        <v>0.02557140333881</v>
-      </c>
-      <c r="T22">
-        <v>0.02793853593934261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.1853256666666666</v>
-      </c>
-      <c r="H23">
-        <v>0.5559769999999999</v>
-      </c>
-      <c r="I23">
-        <v>0.2363626199159475</v>
-      </c>
-      <c r="J23">
-        <v>0.2536789532663885</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>2.103486</v>
-      </c>
-      <c r="N23">
-        <v>6.310458</v>
-      </c>
-      <c r="O23">
-        <v>0.7227716682615739</v>
-      </c>
-      <c r="P23">
-        <v>0.7357742085667051</v>
-      </c>
-      <c r="Q23">
-        <v>0.3898299452739999</v>
-      </c>
-      <c r="R23">
-        <v>3.508469507465999</v>
-      </c>
-      <c r="S23">
-        <v>0.1708362051113257</v>
-      </c>
-      <c r="T23">
-        <v>0.1866504310696072</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.1853256666666666</v>
-      </c>
-      <c r="H24">
-        <v>0.5559769999999999</v>
-      </c>
-      <c r="I24">
-        <v>0.2363626199159475</v>
-      </c>
-      <c r="J24">
-        <v>0.2536789532663885</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.03938133333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.118144</v>
-      </c>
-      <c r="O24">
-        <v>0.01353168596876731</v>
-      </c>
-      <c r="P24">
-        <v>0.01377511871513998</v>
-      </c>
-      <c r="Q24">
-        <v>0.00729837185422222</v>
-      </c>
-      <c r="R24">
-        <v>0.065685346688</v>
-      </c>
-      <c r="S24">
-        <v>0.003198384747457706</v>
-      </c>
-      <c r="T24">
-        <v>0.003494457696776948</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.1853256666666666</v>
-      </c>
-      <c r="H25">
-        <v>0.5559769999999999</v>
-      </c>
-      <c r="I25">
-        <v>0.2363626199159475</v>
-      </c>
-      <c r="J25">
-        <v>0.2536789532663885</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.5</v>
-      </c>
-      <c r="M25">
-        <v>0.154292</v>
-      </c>
-      <c r="N25">
-        <v>0.308584</v>
-      </c>
-      <c r="O25">
-        <v>0.05301574920841631</v>
-      </c>
-      <c r="P25">
-        <v>0.03597966239159632</v>
-      </c>
-      <c r="Q25">
-        <v>0.02859426776133333</v>
-      </c>
-      <c r="R25">
-        <v>0.171565606568</v>
-      </c>
-      <c r="S25">
-        <v>0.0125309413797081</v>
-      </c>
-      <c r="T25">
-        <v>0.0091272830943782</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.1853256666666666</v>
-      </c>
-      <c r="H26">
-        <v>0.5559769999999999</v>
-      </c>
-      <c r="I26">
-        <v>0.2363626199159475</v>
-      </c>
-      <c r="J26">
-        <v>0.2536789532663885</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.298288</v>
-      </c>
-      <c r="N26">
-        <v>0.894864</v>
-      </c>
-      <c r="O26">
-        <v>0.1024937248845052</v>
-      </c>
-      <c r="P26">
-        <v>0.1043375696938061</v>
-      </c>
-      <c r="Q26">
-        <v>0.05528042245866666</v>
-      </c>
-      <c r="R26">
-        <v>0.497523802128</v>
-      </c>
-      <c r="S26">
-        <v>0.024225685338646</v>
-      </c>
-      <c r="T26">
-        <v>0.02646824546628358</v>
+        <v>0.01187559797978427</v>
       </c>
     </row>
   </sheetData>
